--- a/JavaApplication19/src/excel/Libros.xlsx
+++ b/JavaApplication19/src/excel/Libros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
   <si>
     <t>Tipo</t>
   </si>
@@ -43,12 +43,40 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>13  julio</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>Bici chingona</t>
+  </si>
+  <si>
+    <t>$5000</t>
+  </si>
+  <si>
+    <t>Prestamista</t>
+  </si>
+  <si>
+    <t>Bici Chingona 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019DAF1D-811D-489C-AE7D-090704A63B0A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -446,6 +474,258 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="G10" s="1"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Libros.xlsx
+++ b/JavaApplication19/src/excel/Libros.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>Tipo</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Bici Chingona 2</t>
+  </si>
+  <si>
+    <t>15  julio</t>
+  </si>
+  <si>
+    <t>ADAPTADOR DE CALIPER A 203mm</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t>Venta a Cobrar</t>
+  </si>
+  <si>
+    <t>$306.8</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>$440.8</t>
+  </si>
+  <si>
+    <t>Devolucion</t>
   </si>
 </sst>
 </file>
@@ -442,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019DAF1D-811D-489C-AE7D-090704A63B0A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -726,6 +750,149 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Libros.xlsx
+++ b/JavaApplication19/src/excel/Libros.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
     <t>Tipo</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Devolucion</t>
+  </si>
+  <si>
+    <t>17  julio</t>
+  </si>
+  <si>
+    <t>BICI RUTA SCHWINN</t>
+  </si>
+  <si>
+    <t>$17382.0</t>
+  </si>
+  <si>
+    <t>$59</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019DAF1D-811D-489C-AE7D-090704A63B0A}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -893,6 +905,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
